--- a/sims.xlsx
+++ b/sims.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="22">
   <si>
     <t>so</t>
   </si>
@@ -67,6 +67,21 @@
   </si>
   <si>
     <t>Lộc phát</t>
+  </si>
+  <si>
+    <t>Vina</t>
+  </si>
+  <si>
+    <t>Tứ quý</t>
+  </si>
+  <si>
+    <t>git add .</t>
+  </si>
+  <si>
+    <t>git commit -m "Chỉnh sửa [mô tả phần chỉnh sửa]"</t>
+  </si>
+  <si>
+    <t>git push origin main</t>
   </si>
 </sst>
 </file>
@@ -417,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -637,7 +652,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>987585575</v>
+        <v>987580501</v>
       </c>
       <c r="B13">
         <v>1200000</v>
@@ -654,7 +669,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>987585576</v>
+        <v>987580502</v>
       </c>
       <c r="B14">
         <v>1200000</v>
@@ -671,7 +686,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>987585577</v>
+        <v>987580503</v>
       </c>
       <c r="B15">
         <v>1200000</v>
@@ -688,7 +703,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>987585578</v>
+        <v>987580504</v>
       </c>
       <c r="B16">
         <v>1200000</v>
@@ -705,7 +720,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>987585579</v>
+        <v>987580505</v>
       </c>
       <c r="B17">
         <v>1200000</v>
@@ -722,7 +737,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>987585580</v>
+        <v>987580506</v>
       </c>
       <c r="B18">
         <v>1200000</v>
@@ -739,7 +754,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>987585581</v>
+        <v>987580507</v>
       </c>
       <c r="B19">
         <v>1200000</v>
@@ -756,7 +771,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>987585582</v>
+        <v>987580508</v>
       </c>
       <c r="B20">
         <v>1200000</v>
@@ -773,7 +788,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>987585583</v>
+        <v>987580509</v>
       </c>
       <c r="B21">
         <v>1200000</v>
@@ -790,7 +805,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>987585584</v>
+        <v>987580510</v>
       </c>
       <c r="B22">
         <v>1200000</v>
@@ -807,7 +822,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>987585585</v>
+        <v>987580511</v>
       </c>
       <c r="B23">
         <v>1200000</v>
@@ -824,7 +839,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>987585586</v>
+        <v>987580512</v>
       </c>
       <c r="B24">
         <v>1200000</v>
@@ -955,6 +970,312 @@
         <v>9</v>
       </c>
       <c r="E31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>987585574</v>
+      </c>
+      <c r="B32">
+        <v>1200000</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>987585575</v>
+      </c>
+      <c r="B33">
+        <v>1200000</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>987585576</v>
+      </c>
+      <c r="B34">
+        <v>1200000</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>987585577</v>
+      </c>
+      <c r="B35">
+        <v>1200000</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>987585578</v>
+      </c>
+      <c r="B36">
+        <v>1200000</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>987585579</v>
+      </c>
+      <c r="B37">
+        <v>1200000</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>987585580</v>
+      </c>
+      <c r="B38">
+        <v>1200000</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>987585581</v>
+      </c>
+      <c r="B39">
+        <v>1200000</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>987585582</v>
+      </c>
+      <c r="B40">
+        <v>1200000</v>
+      </c>
+      <c r="C40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>987585583</v>
+      </c>
+      <c r="B41">
+        <v>1200000</v>
+      </c>
+      <c r="C41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>987585584</v>
+      </c>
+      <c r="B42">
+        <v>1200000</v>
+      </c>
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>987585585</v>
+      </c>
+      <c r="B43">
+        <v>1200000</v>
+      </c>
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>987585586</v>
+      </c>
+      <c r="B44">
+        <v>1200000</v>
+      </c>
+      <c r="C44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>987585587</v>
+      </c>
+      <c r="B45">
+        <v>1200000</v>
+      </c>
+      <c r="C45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>987585588</v>
+      </c>
+      <c r="B46">
+        <v>1200000</v>
+      </c>
+      <c r="C46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>987585589</v>
+      </c>
+      <c r="B47">
+        <v>1200000</v>
+      </c>
+      <c r="C47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>987585590</v>
+      </c>
+      <c r="B48">
+        <v>1200000</v>
+      </c>
+      <c r="C48" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>987585591</v>
+      </c>
+      <c r="B49">
+        <v>1200000</v>
+      </c>
+      <c r="C49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" t="s">
         <v>10</v>
       </c>
     </row>
@@ -965,10 +1286,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -981,6 +1302,21 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/sims.xlsx
+++ b/sims.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -575,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1429,8 +1429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/sims.xlsx
+++ b/sims.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="33">
   <si>
     <t>so</t>
   </si>
@@ -90,100 +90,31 @@
     <t>ctv1</t>
   </si>
   <si>
-    <t>ctv2</t>
-  </si>
-  <si>
-    <t>ctv3</t>
-  </si>
-  <si>
-    <t>ctv4</t>
-  </si>
-  <si>
-    <t>ctv5</t>
-  </si>
-  <si>
-    <t>ctv6</t>
-  </si>
-  <si>
-    <t>ctv7</t>
-  </si>
-  <si>
-    <t>ctv8</t>
-  </si>
-  <si>
-    <t>ctv9</t>
-  </si>
-  <si>
-    <t>ctv10</t>
-  </si>
-  <si>
-    <t>ctv11</t>
-  </si>
-  <si>
-    <t>ctv12</t>
-  </si>
-  <si>
-    <t>ctv13</t>
-  </si>
-  <si>
-    <t>0981.68.99.72</t>
-  </si>
-  <si>
-    <t>0961.49.94.77</t>
-  </si>
-  <si>
-    <t>0985.66.26.77</t>
-  </si>
-  <si>
-    <t>0975.62.26.93</t>
-  </si>
-  <si>
-    <t>0988.82.88.72</t>
-  </si>
-  <si>
-    <t>0961.66.77.27</t>
-  </si>
-  <si>
-    <t>0988.77.94.82</t>
-  </si>
-  <si>
-    <t>0963.26.27.99</t>
-  </si>
-  <si>
-    <t>0962.90.91.82</t>
-  </si>
-  <si>
-    <t>0985.56.86.77</t>
-  </si>
-  <si>
-    <t>0973.25.26.93</t>
-  </si>
-  <si>
-    <t>0988.10.41.44</t>
-  </si>
-  <si>
-    <t>0962.35.86.93</t>
-  </si>
-  <si>
-    <t>0972.70.22.72</t>
-  </si>
-  <si>
-    <t>0989.01.68.22</t>
-  </si>
-  <si>
-    <t>0989.85.28.72</t>
-  </si>
-  <si>
-    <t>0983.80.68.76</t>
-  </si>
-  <si>
-    <t>0982.59.93.77</t>
-  </si>
-  <si>
-    <t>0972.65.68.93</t>
-  </si>
-  <si>
-    <t>0963.60.28.22</t>
+    <t>0866.612.672</t>
+  </si>
+  <si>
+    <t>0866.915.945</t>
+  </si>
+  <si>
+    <t>09.6214.6217</t>
+  </si>
+  <si>
+    <t>09.6921.6925</t>
+  </si>
+  <si>
+    <t>09.8192.8197</t>
+  </si>
+  <si>
+    <t>0866.020.027</t>
+  </si>
+  <si>
+    <t>0353.107.187</t>
+  </si>
+  <si>
+    <t>0868.510.590</t>
+  </si>
+  <si>
+    <t>0866.907.957</t>
   </si>
 </sst>
 </file>
@@ -233,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -242,6 +173,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,376 +475,360 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="14.21875" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1">
-        <v>800000</v>
+        <v>500000</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B3">
-        <v>2300000</v>
+        <v>500000</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B4">
-        <v>1200000</v>
+        <v>600000</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B5">
-        <v>1000000</v>
+        <v>600000</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B6">
-        <v>2500000</v>
+        <v>600000</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B7">
-        <v>900000</v>
+        <v>600000</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B8">
-        <v>700000</v>
+        <v>500000</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B9">
-        <v>2200000</v>
+        <v>600000</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B10">
-        <v>800000</v>
+        <v>600000</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11">
-        <v>1100000</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12">
-        <v>700000</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13">
-        <v>1200000</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
-        <v>700000</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15">
-        <v>1500000</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16">
-        <v>1500000</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17">
-        <v>1500000</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18">
-        <v>1000000</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19">
-        <v>1200000</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20">
-        <v>1000000</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21">
-        <v>550000</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" t="s">
-        <v>35</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D54" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -924,7 +840,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A9" sqref="A9:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/sims.xlsx
+++ b/sims.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>so</t>
   </si>
@@ -87,41 +87,17 @@
     <t>Độc lạ</t>
   </si>
   <si>
-    <t>ctv1</t>
-  </si>
-  <si>
-    <t>0866.612.672</t>
-  </si>
-  <si>
-    <t>0866.915.945</t>
-  </si>
-  <si>
-    <t>09.6214.6217</t>
-  </si>
-  <si>
-    <t>09.6921.6925</t>
-  </si>
-  <si>
-    <t>09.8192.8197</t>
-  </si>
-  <si>
-    <t>0866.020.027</t>
-  </si>
-  <si>
-    <t>0353.107.187</t>
-  </si>
-  <si>
-    <t>0868.510.590</t>
-  </si>
-  <si>
-    <t>0866.907.957</t>
+    <t>096.139.1799</t>
+  </si>
+  <si>
+    <t>0349.679.979</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +116,12 @@
     <font>
       <sz val="8"/>
       <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -164,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -174,6 +156,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,7 +472,7 @@
     <col min="2" max="2" width="14.21875" customWidth="1"/>
     <col min="3" max="3" width="12.21875" customWidth="1"/>
     <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -511,201 +496,61 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
-        <v>500000</v>
+        <v>3500000</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
+      <c r="D2" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3">
-        <v>500000</v>
+        <v>2500000</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4">
-        <v>600000</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5">
-        <v>600000</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6">
-        <v>600000</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7">
-        <v>600000</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8">
-        <v>500000</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9">
-        <v>600000</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10">
-        <v>600000</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D12" s="3"/>
-      <c r="F12" s="3" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D13" s="3"/>
-      <c r="F13" s="3" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D14" s="3"/>
@@ -832,6 +677,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -840,7 +686,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -871,62 +717,62 @@
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
     </row>

--- a/sims.xlsx
+++ b/sims.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="273">
   <si>
     <t>so</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Thượng Lưu</t>
   </si>
   <si>
-    <t>Hợp mệnh</t>
-  </si>
-  <si>
     <t>Taxi</t>
   </si>
   <si>
@@ -87,10 +84,757 @@
     <t>Độc lạ</t>
   </si>
   <si>
-    <t>096.139.1799</t>
-  </si>
-  <si>
-    <t>0349.679.979</t>
+    <t>Hợp mệnh hỏa</t>
+  </si>
+  <si>
+    <t>khai dat</t>
+  </si>
+  <si>
+    <t>Hợp mệnh kim</t>
+  </si>
+  <si>
+    <t>Hợp mệnh mộc</t>
+  </si>
+  <si>
+    <t>Hợp mệnh thổ</t>
+  </si>
+  <si>
+    <t>0981.577.229</t>
+  </si>
+  <si>
+    <t>09797.252.77</t>
+  </si>
+  <si>
+    <t>0987.516.536</t>
+  </si>
+  <si>
+    <t>0971177576</t>
+  </si>
+  <si>
+    <t>0979.041.047</t>
+  </si>
+  <si>
+    <t>0989.10.7273</t>
+  </si>
+  <si>
+    <t>0868.255.007</t>
+  </si>
+  <si>
+    <t>0988.761.767</t>
+  </si>
+  <si>
+    <t>0987.97.50.59</t>
+  </si>
+  <si>
+    <t>09.6570.6571</t>
+  </si>
+  <si>
+    <t>0966.353.464</t>
+  </si>
+  <si>
+    <t>098833.10.18</t>
+  </si>
+  <si>
+    <t>0966.337.808</t>
+  </si>
+  <si>
+    <t>0866.688.404</t>
+  </si>
+  <si>
+    <t>0386.889.683</t>
+  </si>
+  <si>
+    <t>0989.969.117</t>
+  </si>
+  <si>
+    <t>0982.500.229</t>
+  </si>
+  <si>
+    <t>0988.1357.59</t>
+  </si>
+  <si>
+    <t>0868.505.545</t>
+  </si>
+  <si>
+    <t>0989.074.094</t>
+  </si>
+  <si>
+    <t>0977.420.480</t>
+  </si>
+  <si>
+    <t>0982.599.377</t>
+  </si>
+  <si>
+    <t>0379.0505.39</t>
+  </si>
+  <si>
+    <t>033.68.79.199</t>
+  </si>
+  <si>
+    <t>038883.2225</t>
+  </si>
+  <si>
+    <t>0965.120.140</t>
+  </si>
+  <si>
+    <t>0981.571.577</t>
+  </si>
+  <si>
+    <t>0962.06.02.84</t>
+  </si>
+  <si>
+    <t>0379.082.089</t>
+  </si>
+  <si>
+    <t>0963.92.66.95</t>
+  </si>
+  <si>
+    <t>0982.8866.71</t>
+  </si>
+  <si>
+    <t>0973.2636.95</t>
+  </si>
+  <si>
+    <t>0865.363.262</t>
+  </si>
+  <si>
+    <t>0866.169.469</t>
+  </si>
+  <si>
+    <t>0368.773.993</t>
+  </si>
+  <si>
+    <t>0988.499.773</t>
+  </si>
+  <si>
+    <t>0989.10.8285</t>
+  </si>
+  <si>
+    <t>0968662859</t>
+  </si>
+  <si>
+    <t>0388.6686.95</t>
+  </si>
+  <si>
+    <t>0966.745.765</t>
+  </si>
+  <si>
+    <t>0383.899.226</t>
+  </si>
+  <si>
+    <t>0369.36.76.96</t>
+  </si>
+  <si>
+    <t>0862.686.959</t>
+  </si>
+  <si>
+    <t>0353.609.699</t>
+  </si>
+  <si>
+    <t>0339938969</t>
+  </si>
+  <si>
+    <t>0969002263</t>
+  </si>
+  <si>
+    <t>0973.0022.59</t>
+  </si>
+  <si>
+    <t>0987.470.407</t>
+  </si>
+  <si>
+    <t>098.55255.47</t>
+  </si>
+  <si>
+    <t>0972.6636.92</t>
+  </si>
+  <si>
+    <t>0989.731.738</t>
+  </si>
+  <si>
+    <t>0986.436.496</t>
+  </si>
+  <si>
+    <t>0983.806.876</t>
+  </si>
+  <si>
+    <t>0977.6636.92</t>
+  </si>
+  <si>
+    <t>0971.700.377</t>
+  </si>
+  <si>
+    <t>0989.5500.37</t>
+  </si>
+  <si>
+    <t>03899.606.99</t>
+  </si>
+  <si>
+    <t>0988.919.447</t>
+  </si>
+  <si>
+    <t>0972.6568.93</t>
+  </si>
+  <si>
+    <t>0982.443.992</t>
+  </si>
+  <si>
+    <t>0964.05.03.82</t>
+  </si>
+  <si>
+    <t>096.1980.283</t>
+  </si>
+  <si>
+    <t>0866.866.078</t>
+  </si>
+  <si>
+    <t>0973.937.683</t>
+  </si>
+  <si>
+    <t>0961.716.736</t>
+  </si>
+  <si>
+    <t>0963.410.450</t>
+  </si>
+  <si>
+    <t>0982.599.004</t>
+  </si>
+  <si>
+    <t>0962.309.359</t>
+  </si>
+  <si>
+    <t>0988.703.753</t>
+  </si>
+  <si>
+    <t>0865.650.056</t>
+  </si>
+  <si>
+    <t>0865.657.756</t>
+  </si>
+  <si>
+    <t>0865.657.675</t>
+  </si>
+  <si>
+    <t>0967.013578</t>
+  </si>
+  <si>
+    <t>0865.050.080</t>
+  </si>
+  <si>
+    <t>0975.840.890</t>
+  </si>
+  <si>
+    <t>0865.085.095</t>
+  </si>
+  <si>
+    <t>0975.517.547</t>
+  </si>
+  <si>
+    <t>0966.027.047</t>
+  </si>
+  <si>
+    <t>0969.0033.92</t>
+  </si>
+  <si>
+    <t>0377.922.889</t>
+  </si>
+  <si>
+    <t>0965.129.149</t>
+  </si>
+  <si>
+    <t>0964.026.046</t>
+  </si>
+  <si>
+    <t>0962.750.705</t>
+  </si>
+  <si>
+    <t>0964.520.560</t>
+  </si>
+  <si>
+    <t>0866.798.987</t>
+  </si>
+  <si>
+    <t>0388.281.218</t>
+  </si>
+  <si>
+    <t>0971.220.929</t>
+  </si>
+  <si>
+    <t>0982.5522.53</t>
+  </si>
+  <si>
+    <t>0968.3355.07</t>
+  </si>
+  <si>
+    <t>0865.469.489</t>
+  </si>
+  <si>
+    <t>0969.52.8385</t>
+  </si>
+  <si>
+    <t>0366.353.969</t>
+  </si>
+  <si>
+    <t>0866.828.606</t>
+  </si>
+  <si>
+    <t>0965.21.39.69</t>
+  </si>
+  <si>
+    <t>0398.589.859</t>
+  </si>
+  <si>
+    <t>0386.136.163</t>
+  </si>
+  <si>
+    <t>0963.203.243</t>
+  </si>
+  <si>
+    <t>0865.899.707</t>
+  </si>
+  <si>
+    <t>0867.089.098</t>
+  </si>
+  <si>
+    <t>0978.064.084</t>
+  </si>
+  <si>
+    <t>0398836828</t>
+  </si>
+  <si>
+    <t>0962.2638.95</t>
+  </si>
+  <si>
+    <t>0969.23.57.59</t>
+  </si>
+  <si>
+    <t>0979.07.04.19</t>
+  </si>
+  <si>
+    <t>0968.400.883</t>
+  </si>
+  <si>
+    <t>0862.878.929</t>
+  </si>
+  <si>
+    <t>0987.824.854</t>
+  </si>
+  <si>
+    <t>0985.021.061</t>
+  </si>
+  <si>
+    <t>0975.703.753</t>
+  </si>
+  <si>
+    <t>0982.173.713</t>
+  </si>
+  <si>
+    <t>0984.027.097</t>
+  </si>
+  <si>
+    <t>0984.501.509</t>
+  </si>
+  <si>
+    <t>0985.470.476</t>
+  </si>
+  <si>
+    <t>0988.104.124</t>
+  </si>
+  <si>
+    <t>0986.664.880</t>
+  </si>
+  <si>
+    <t>0986.410.490</t>
+  </si>
+  <si>
+    <t>0987077174</t>
+  </si>
+  <si>
+    <t>0336.877.399</t>
+  </si>
+  <si>
+    <t>0984.334.384</t>
+  </si>
+  <si>
+    <t>0363.29.6899</t>
+  </si>
+  <si>
+    <t>0961.6655.75</t>
+  </si>
+  <si>
+    <t>0989.62.07.09</t>
+  </si>
+  <si>
+    <t>0983.228.005</t>
+  </si>
+  <si>
+    <t>0966.399.445</t>
+  </si>
+  <si>
+    <t>0988.686.442</t>
+  </si>
+  <si>
+    <t>0868.298.626</t>
+  </si>
+  <si>
+    <t>0972.144.887</t>
+  </si>
+  <si>
+    <t>09797.13685</t>
+  </si>
+  <si>
+    <t>0962.909.182</t>
+  </si>
+  <si>
+    <t>098.16899.72</t>
+  </si>
+  <si>
+    <t>0981.348.548</t>
+  </si>
+  <si>
+    <t>0978.770.012</t>
+  </si>
+  <si>
+    <t>0972.9955.63</t>
+  </si>
+  <si>
+    <t>0865.080.050</t>
+  </si>
+  <si>
+    <t>0865.060.030</t>
+  </si>
+  <si>
+    <t>0964.750.780</t>
+  </si>
+  <si>
+    <t>0869.765.657</t>
+  </si>
+  <si>
+    <t>0867.820.028</t>
+  </si>
+  <si>
+    <t>0867.639.659</t>
+  </si>
+  <si>
+    <t>0964.234.274</t>
+  </si>
+  <si>
+    <t>0867.719.759</t>
+  </si>
+  <si>
+    <t>0981.9955.49</t>
+  </si>
+  <si>
+    <t>0373.189.379</t>
+  </si>
+  <si>
+    <t>0986.8833.05</t>
+  </si>
+  <si>
+    <t>086.2233.557</t>
+  </si>
+  <si>
+    <t>0336.933.266</t>
+  </si>
+  <si>
+    <t>0968.705.735</t>
+  </si>
+  <si>
+    <t>0977.677.192</t>
+  </si>
+  <si>
+    <t>0339.929.969</t>
+  </si>
+  <si>
+    <t>0962.407.427</t>
+  </si>
+  <si>
+    <t>09859.368.92</t>
+  </si>
+  <si>
+    <t>0983.431.481</t>
+  </si>
+  <si>
+    <t>0865.506.065</t>
+  </si>
+  <si>
+    <t>0865.675.756</t>
+  </si>
+  <si>
+    <t>0989.95.53.52</t>
+  </si>
+  <si>
+    <t>09.8527.8529</t>
+  </si>
+  <si>
+    <t>0866.924.249</t>
+  </si>
+  <si>
+    <t>0973.25.26.93</t>
+  </si>
+  <si>
+    <t>0868.861.891</t>
+  </si>
+  <si>
+    <t>0869.259.592</t>
+  </si>
+  <si>
+    <t>0866.607.067</t>
+  </si>
+  <si>
+    <t>0369.53.7899</t>
+  </si>
+  <si>
+    <t>0868.705.075</t>
+  </si>
+  <si>
+    <t>0869.016.160</t>
+  </si>
+  <si>
+    <t>0866.878.565</t>
+  </si>
+  <si>
+    <t>0867.809.890</t>
+  </si>
+  <si>
+    <t>0866.102.162</t>
+  </si>
+  <si>
+    <t>0349.656.989</t>
+  </si>
+  <si>
+    <t>0979.35.42.47</t>
+  </si>
+  <si>
+    <t>0866.821.829</t>
+  </si>
+  <si>
+    <t>0969.949.283</t>
+  </si>
+  <si>
+    <t>0989.593.246</t>
+  </si>
+  <si>
+    <t>0987.024.007</t>
+  </si>
+  <si>
+    <t>0964.266.089</t>
+  </si>
+  <si>
+    <t>0973.860.683</t>
+  </si>
+  <si>
+    <t>0866.602.607</t>
+  </si>
+  <si>
+    <t>0963.5655.92</t>
+  </si>
+  <si>
+    <t>033.62.16889</t>
+  </si>
+  <si>
+    <t>0865.630.306</t>
+  </si>
+  <si>
+    <t>0868.920.980</t>
+  </si>
+  <si>
+    <t>0866.204.024</t>
+  </si>
+  <si>
+    <t>0868.563.653</t>
+  </si>
+  <si>
+    <t>0868.715.785</t>
+  </si>
+  <si>
+    <t>0866.939.707</t>
+  </si>
+  <si>
+    <t>0866.769.697</t>
+  </si>
+  <si>
+    <t>0867.821.828</t>
+  </si>
+  <si>
+    <t>0976.998.592</t>
+  </si>
+  <si>
+    <t>0968386307</t>
+  </si>
+  <si>
+    <t>0983313833</t>
+  </si>
+  <si>
+    <t>0977.578.012</t>
+  </si>
+  <si>
+    <t>0983.011.582</t>
+  </si>
+  <si>
+    <t>0338.90.90.99</t>
+  </si>
+  <si>
+    <t>0866.940.409</t>
+  </si>
+  <si>
+    <t>0965.247.368</t>
+  </si>
+  <si>
+    <t>098.98.98.404</t>
+  </si>
+  <si>
+    <t>0982.21.04.96</t>
+  </si>
+  <si>
+    <t>097.2121.879</t>
+  </si>
+  <si>
+    <t>0972.030.799</t>
+  </si>
+  <si>
+    <t>0865.603.063</t>
+  </si>
+  <si>
+    <t>0326.379.389</t>
+  </si>
+  <si>
+    <t>0363689839</t>
+  </si>
+  <si>
+    <t>0359.63.63.69</t>
+  </si>
+  <si>
+    <t>0968.082.089</t>
+  </si>
+  <si>
+    <t>0979.20.06.94</t>
+  </si>
+  <si>
+    <t>0989.040.799</t>
+  </si>
+  <si>
+    <t>0866.007.113</t>
+  </si>
+  <si>
+    <t>0961.535.575</t>
+  </si>
+  <si>
+    <t>0867.068.078</t>
+  </si>
+  <si>
+    <t>0965.20.70.80</t>
+  </si>
+  <si>
+    <t>0968.10.40.90</t>
+  </si>
+  <si>
+    <t>0961.10.20.40</t>
+  </si>
+  <si>
+    <t>0962.90.91.95</t>
+  </si>
+  <si>
+    <t>0983.360.660</t>
+  </si>
+  <si>
+    <t>0363.29.69.89</t>
+  </si>
+  <si>
+    <t>0971.10.60.80</t>
+  </si>
+  <si>
+    <t>038.6868.007</t>
+  </si>
+  <si>
+    <t>0989.464.559</t>
+  </si>
+  <si>
+    <t>0983.07.02.93</t>
+  </si>
+  <si>
+    <t>0377.555.113</t>
+  </si>
+  <si>
+    <t>038668.1689</t>
+  </si>
+  <si>
+    <t>0369.338.689</t>
+  </si>
+  <si>
+    <t>03699.838.99</t>
+  </si>
+  <si>
+    <t>0375.368.779</t>
+  </si>
+  <si>
+    <t>0965.21.07.97</t>
+  </si>
+  <si>
+    <t>0977.422.559</t>
+  </si>
+  <si>
+    <t>033.7779.113</t>
+  </si>
+  <si>
+    <t>03.98765.179</t>
+  </si>
+  <si>
+    <t>0382.567.078</t>
+  </si>
+  <si>
+    <t>0988.70.5859</t>
+  </si>
+  <si>
+    <t>0989.57.9192</t>
+  </si>
+  <si>
+    <t>0338.998.366</t>
+  </si>
+  <si>
+    <t>0339683833</t>
+  </si>
+  <si>
+    <t>0862233683</t>
+  </si>
+  <si>
+    <t>0982.82.89.36</t>
+  </si>
+  <si>
+    <t>0868.179.007</t>
+  </si>
+  <si>
+    <t>0983.992.442</t>
+  </si>
+  <si>
+    <t>0988.01.51.81</t>
+  </si>
+  <si>
+    <t>032.8877699</t>
+  </si>
+  <si>
+    <t>0982228820</t>
+  </si>
+  <si>
+    <t>0965.13.23.53</t>
+  </si>
+  <si>
+    <t>0986.868.478</t>
+  </si>
+  <si>
+    <t>0971599195</t>
+  </si>
+  <si>
+    <t>0975.13.03.04</t>
+  </si>
+  <si>
+    <t>0961.154.164</t>
+  </si>
+  <si>
+    <t>0986.4433.04</t>
+  </si>
+  <si>
+    <t>Hợp mệnh thủy</t>
   </si>
 </sst>
 </file>
@@ -146,12 +890,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -460,10 +1203,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -477,203 +1220,4187 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1">
-        <v>3500000</v>
+        <v>990000</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>14</v>
+      <c r="D2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>24</v>
+      <c r="A3" t="s">
+        <v>28</v>
       </c>
       <c r="B3">
-        <v>2500000</v>
+        <v>990000</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>14</v>
+      <c r="D3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D4" s="3"/>
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>990000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>272</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D5" s="3"/>
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>990000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D6" s="3"/>
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>990000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>272</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D7" s="3"/>
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>990000</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>272</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D8" s="3"/>
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>990000</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>272</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D9" s="3"/>
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9">
+        <v>990000</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>272</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D10" s="3"/>
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>990000</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>272</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D11" s="3"/>
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11">
+        <v>990000</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>272</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D12" s="3"/>
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12">
+        <v>990000</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>272</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D13" s="3"/>
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13">
+        <v>990000</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>272</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D14" s="3"/>
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14">
+        <v>990000</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>272</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D15" s="3"/>
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <v>990000</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>272</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D47" s="3"/>
-    </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D48" s="3"/>
-    </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D49" s="3"/>
-    </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D50" s="3"/>
-    </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D51" s="3"/>
-    </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D52" s="3"/>
-    </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D53" s="3"/>
-    </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D54" s="3"/>
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16">
+        <v>990000</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>272</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17">
+        <v>990000</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>272</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18">
+        <v>990000</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>272</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19">
+        <v>990000</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>272</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20">
+        <v>990000</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>272</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21">
+        <v>990000</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>272</v>
+      </c>
+      <c r="E21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22">
+        <v>990000</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>272</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23">
+        <v>990000</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>272</v>
+      </c>
+      <c r="E23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24">
+        <v>990000</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>272</v>
+      </c>
+      <c r="E24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25">
+        <v>990000</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>272</v>
+      </c>
+      <c r="E25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26">
+        <v>990000</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>272</v>
+      </c>
+      <c r="E26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27">
+        <v>990000</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>272</v>
+      </c>
+      <c r="E27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28">
+        <v>890000</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>272</v>
+      </c>
+      <c r="E28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29">
+        <v>790000</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>272</v>
+      </c>
+      <c r="E29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30">
+        <v>790000</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>272</v>
+      </c>
+      <c r="E30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31">
+        <v>790000</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>272</v>
+      </c>
+      <c r="E31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32">
+        <v>790000</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>272</v>
+      </c>
+      <c r="E32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33">
+        <v>790000</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>272</v>
+      </c>
+      <c r="E33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34">
+        <v>790000</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>272</v>
+      </c>
+      <c r="E34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35">
+        <v>790000</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>272</v>
+      </c>
+      <c r="E35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36">
+        <v>790000</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>272</v>
+      </c>
+      <c r="E36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37">
+        <v>790000</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>272</v>
+      </c>
+      <c r="E37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38">
+        <v>790000</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>272</v>
+      </c>
+      <c r="E38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39">
+        <v>790000</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>272</v>
+      </c>
+      <c r="E39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40">
+        <v>790000</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>272</v>
+      </c>
+      <c r="E40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41">
+        <v>790000</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>272</v>
+      </c>
+      <c r="E41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42">
+        <v>790000</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>272</v>
+      </c>
+      <c r="E42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43">
+        <v>790000</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>272</v>
+      </c>
+      <c r="E43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44">
+        <v>790000</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>272</v>
+      </c>
+      <c r="E44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45">
+        <v>790000</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" t="s">
+        <v>272</v>
+      </c>
+      <c r="E45" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46">
+        <v>790000</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>272</v>
+      </c>
+      <c r="E46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47">
+        <v>790000</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>272</v>
+      </c>
+      <c r="E47" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48">
+        <v>790000</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
+        <v>272</v>
+      </c>
+      <c r="E48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49">
+        <v>790000</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s">
+        <v>272</v>
+      </c>
+      <c r="E49" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50">
+        <v>790000</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" t="s">
+        <v>272</v>
+      </c>
+      <c r="E50" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51">
+        <v>790000</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" t="s">
+        <v>272</v>
+      </c>
+      <c r="E51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52">
+        <v>790000</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s">
+        <v>272</v>
+      </c>
+      <c r="E52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53">
+        <v>790000</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s">
+        <v>272</v>
+      </c>
+      <c r="E53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54">
+        <v>790000</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
+        <v>272</v>
+      </c>
+      <c r="E54" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>80</v>
+      </c>
+      <c r="B55">
+        <v>790000</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s">
+        <v>272</v>
+      </c>
+      <c r="E55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>81</v>
+      </c>
+      <c r="B56">
+        <v>790000</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" t="s">
+        <v>272</v>
+      </c>
+      <c r="E56" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57">
+        <v>790000</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" t="s">
+        <v>272</v>
+      </c>
+      <c r="E57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58">
+        <v>790000</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" t="s">
+        <v>272</v>
+      </c>
+      <c r="E58" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59">
+        <v>790000</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" t="s">
+        <v>272</v>
+      </c>
+      <c r="E59" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>85</v>
+      </c>
+      <c r="B60">
+        <v>790000</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" t="s">
+        <v>272</v>
+      </c>
+      <c r="E60" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>86</v>
+      </c>
+      <c r="B61">
+        <v>790000</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" t="s">
+        <v>272</v>
+      </c>
+      <c r="E61" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>87</v>
+      </c>
+      <c r="B62">
+        <v>790000</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" t="s">
+        <v>272</v>
+      </c>
+      <c r="E62" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>88</v>
+      </c>
+      <c r="B63">
+        <v>790000</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" t="s">
+        <v>272</v>
+      </c>
+      <c r="E63" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64">
+        <v>7290000</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" t="s">
+        <v>272</v>
+      </c>
+      <c r="E64" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>90</v>
+      </c>
+      <c r="B65">
+        <v>690000</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" t="s">
+        <v>272</v>
+      </c>
+      <c r="E65" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66">
+        <v>690000</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" t="s">
+        <v>272</v>
+      </c>
+      <c r="E66" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>92</v>
+      </c>
+      <c r="B67">
+        <v>690000</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" t="s">
+        <v>272</v>
+      </c>
+      <c r="E67" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>93</v>
+      </c>
+      <c r="B68">
+        <v>690000</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
+        <v>272</v>
+      </c>
+      <c r="E68" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>94</v>
+      </c>
+      <c r="B69">
+        <v>690000</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" t="s">
+        <v>272</v>
+      </c>
+      <c r="E69" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>95</v>
+      </c>
+      <c r="B70">
+        <v>690000</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" t="s">
+        <v>272</v>
+      </c>
+      <c r="E70" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>96</v>
+      </c>
+      <c r="B71">
+        <v>690000</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" t="s">
+        <v>272</v>
+      </c>
+      <c r="E71" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>97</v>
+      </c>
+      <c r="B72">
+        <v>690000</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" t="s">
+        <v>272</v>
+      </c>
+      <c r="E72" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>98</v>
+      </c>
+      <c r="B73">
+        <v>690000</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" t="s">
+        <v>272</v>
+      </c>
+      <c r="E73" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>99</v>
+      </c>
+      <c r="B74">
+        <v>690000</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" t="s">
+        <v>272</v>
+      </c>
+      <c r="E74" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>100</v>
+      </c>
+      <c r="B75">
+        <v>690000</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" t="s">
+        <v>272</v>
+      </c>
+      <c r="E75" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>101</v>
+      </c>
+      <c r="B76">
+        <v>690000</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" t="s">
+        <v>272</v>
+      </c>
+      <c r="E76" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>102</v>
+      </c>
+      <c r="B77">
+        <v>690000</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" t="s">
+        <v>272</v>
+      </c>
+      <c r="E77" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>103</v>
+      </c>
+      <c r="B78">
+        <v>690000</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" t="s">
+        <v>272</v>
+      </c>
+      <c r="E78" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>104</v>
+      </c>
+      <c r="B79">
+        <v>690000</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" t="s">
+        <v>272</v>
+      </c>
+      <c r="E79" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>105</v>
+      </c>
+      <c r="B80">
+        <v>690000</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" t="s">
+        <v>272</v>
+      </c>
+      <c r="E80" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>106</v>
+      </c>
+      <c r="B81">
+        <v>690000</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" t="s">
+        <v>272</v>
+      </c>
+      <c r="E81" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>107</v>
+      </c>
+      <c r="B82">
+        <v>690000</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" t="s">
+        <v>272</v>
+      </c>
+      <c r="E82" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>108</v>
+      </c>
+      <c r="B83">
+        <v>690000</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" t="s">
+        <v>272</v>
+      </c>
+      <c r="E83" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>109</v>
+      </c>
+      <c r="B84">
+        <v>690000</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" t="s">
+        <v>272</v>
+      </c>
+      <c r="E84" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>110</v>
+      </c>
+      <c r="B85">
+        <v>690000</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" t="s">
+        <v>272</v>
+      </c>
+      <c r="E85" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>111</v>
+      </c>
+      <c r="B86">
+        <v>690000</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" t="s">
+        <v>272</v>
+      </c>
+      <c r="E86" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>112</v>
+      </c>
+      <c r="B87">
+        <v>690000</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" t="s">
+        <v>272</v>
+      </c>
+      <c r="E87" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>113</v>
+      </c>
+      <c r="B88">
+        <v>690000</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" t="s">
+        <v>272</v>
+      </c>
+      <c r="E88" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>114</v>
+      </c>
+      <c r="B89">
+        <v>690000</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" t="s">
+        <v>272</v>
+      </c>
+      <c r="E89" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>115</v>
+      </c>
+      <c r="B90">
+        <v>690000</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" t="s">
+        <v>272</v>
+      </c>
+      <c r="E90" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>116</v>
+      </c>
+      <c r="B91">
+        <v>690000</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" t="s">
+        <v>272</v>
+      </c>
+      <c r="E91" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>117</v>
+      </c>
+      <c r="B92">
+        <v>690000</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" t="s">
+        <v>272</v>
+      </c>
+      <c r="E92" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>118</v>
+      </c>
+      <c r="B93">
+        <v>690000</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" t="s">
+        <v>272</v>
+      </c>
+      <c r="E93" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>119</v>
+      </c>
+      <c r="B94">
+        <v>690000</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" t="s">
+        <v>272</v>
+      </c>
+      <c r="E94" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>120</v>
+      </c>
+      <c r="B95">
+        <v>690000</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" t="s">
+        <v>272</v>
+      </c>
+      <c r="E95" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>121</v>
+      </c>
+      <c r="B96">
+        <v>690000</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96" t="s">
+        <v>272</v>
+      </c>
+      <c r="E96" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>122</v>
+      </c>
+      <c r="B97">
+        <v>690000</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" t="s">
+        <v>272</v>
+      </c>
+      <c r="E97" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>123</v>
+      </c>
+      <c r="B98">
+        <v>690000</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98" t="s">
+        <v>272</v>
+      </c>
+      <c r="E98" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>124</v>
+      </c>
+      <c r="B99">
+        <v>690000</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99" t="s">
+        <v>272</v>
+      </c>
+      <c r="E99" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>125</v>
+      </c>
+      <c r="B100">
+        <v>690000</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" t="s">
+        <v>272</v>
+      </c>
+      <c r="E100" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>126</v>
+      </c>
+      <c r="B101">
+        <v>690000</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" t="s">
+        <v>272</v>
+      </c>
+      <c r="E101" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>127</v>
+      </c>
+      <c r="B102">
+        <v>690000</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" t="s">
+        <v>272</v>
+      </c>
+      <c r="E102" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>128</v>
+      </c>
+      <c r="B103">
+        <v>690000</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5</v>
+      </c>
+      <c r="D103" t="s">
+        <v>272</v>
+      </c>
+      <c r="E103" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>129</v>
+      </c>
+      <c r="B104">
+        <v>690000</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" t="s">
+        <v>272</v>
+      </c>
+      <c r="E104" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>130</v>
+      </c>
+      <c r="B105">
+        <v>690000</v>
+      </c>
+      <c r="C105" t="s">
+        <v>5</v>
+      </c>
+      <c r="D105" t="s">
+        <v>272</v>
+      </c>
+      <c r="E105" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>131</v>
+      </c>
+      <c r="B106">
+        <v>690000</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106" t="s">
+        <v>272</v>
+      </c>
+      <c r="E106" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>132</v>
+      </c>
+      <c r="B107">
+        <v>690000</v>
+      </c>
+      <c r="C107" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" t="s">
+        <v>272</v>
+      </c>
+      <c r="E107" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>133</v>
+      </c>
+      <c r="B108">
+        <v>690000</v>
+      </c>
+      <c r="C108" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108" t="s">
+        <v>272</v>
+      </c>
+      <c r="E108" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>134</v>
+      </c>
+      <c r="B109">
+        <v>690000</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109" t="s">
+        <v>272</v>
+      </c>
+      <c r="E109" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>135</v>
+      </c>
+      <c r="B110">
+        <v>690000</v>
+      </c>
+      <c r="C110" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110" t="s">
+        <v>272</v>
+      </c>
+      <c r="E110" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>136</v>
+      </c>
+      <c r="B111">
+        <v>690000</v>
+      </c>
+      <c r="C111" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111" t="s">
+        <v>272</v>
+      </c>
+      <c r="E111" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>137</v>
+      </c>
+      <c r="B112">
+        <v>690000</v>
+      </c>
+      <c r="C112" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112" t="s">
+        <v>272</v>
+      </c>
+      <c r="E112" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>138</v>
+      </c>
+      <c r="B113">
+        <v>690000</v>
+      </c>
+      <c r="C113" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113" t="s">
+        <v>272</v>
+      </c>
+      <c r="E113" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>139</v>
+      </c>
+      <c r="B114">
+        <v>690000</v>
+      </c>
+      <c r="C114" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" t="s">
+        <v>272</v>
+      </c>
+      <c r="E114" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>140</v>
+      </c>
+      <c r="B115">
+        <v>690000</v>
+      </c>
+      <c r="C115" t="s">
+        <v>5</v>
+      </c>
+      <c r="D115" t="s">
+        <v>272</v>
+      </c>
+      <c r="E115" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>141</v>
+      </c>
+      <c r="B116">
+        <v>690000</v>
+      </c>
+      <c r="C116" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116" t="s">
+        <v>272</v>
+      </c>
+      <c r="E116" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>142</v>
+      </c>
+      <c r="B117">
+        <v>690000</v>
+      </c>
+      <c r="C117" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" t="s">
+        <v>272</v>
+      </c>
+      <c r="E117" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>143</v>
+      </c>
+      <c r="B118">
+        <v>690000</v>
+      </c>
+      <c r="C118" t="s">
+        <v>5</v>
+      </c>
+      <c r="D118" t="s">
+        <v>272</v>
+      </c>
+      <c r="E118" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>144</v>
+      </c>
+      <c r="B119">
+        <v>690000</v>
+      </c>
+      <c r="C119" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" t="s">
+        <v>272</v>
+      </c>
+      <c r="E119" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>145</v>
+      </c>
+      <c r="B120">
+        <v>690000</v>
+      </c>
+      <c r="C120" t="s">
+        <v>5</v>
+      </c>
+      <c r="D120" t="s">
+        <v>272</v>
+      </c>
+      <c r="E120" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>146</v>
+      </c>
+      <c r="B121">
+        <v>690000</v>
+      </c>
+      <c r="C121" t="s">
+        <v>5</v>
+      </c>
+      <c r="D121" t="s">
+        <v>272</v>
+      </c>
+      <c r="E121" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>147</v>
+      </c>
+      <c r="B122">
+        <v>690000</v>
+      </c>
+      <c r="C122" t="s">
+        <v>5</v>
+      </c>
+      <c r="D122" t="s">
+        <v>272</v>
+      </c>
+      <c r="E122" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>148</v>
+      </c>
+      <c r="B123">
+        <v>690000</v>
+      </c>
+      <c r="C123" t="s">
+        <v>5</v>
+      </c>
+      <c r="D123" t="s">
+        <v>272</v>
+      </c>
+      <c r="E123" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>149</v>
+      </c>
+      <c r="B124">
+        <v>690000</v>
+      </c>
+      <c r="C124" t="s">
+        <v>5</v>
+      </c>
+      <c r="D124" t="s">
+        <v>272</v>
+      </c>
+      <c r="E124" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>150</v>
+      </c>
+      <c r="B125">
+        <v>690000</v>
+      </c>
+      <c r="C125" t="s">
+        <v>5</v>
+      </c>
+      <c r="D125" t="s">
+        <v>272</v>
+      </c>
+      <c r="E125" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>151</v>
+      </c>
+      <c r="B126">
+        <v>690000</v>
+      </c>
+      <c r="C126" t="s">
+        <v>5</v>
+      </c>
+      <c r="D126" t="s">
+        <v>272</v>
+      </c>
+      <c r="E126" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>152</v>
+      </c>
+      <c r="B127">
+        <v>690000</v>
+      </c>
+      <c r="C127" t="s">
+        <v>5</v>
+      </c>
+      <c r="D127" t="s">
+        <v>272</v>
+      </c>
+      <c r="E127" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>153</v>
+      </c>
+      <c r="B128">
+        <v>690000</v>
+      </c>
+      <c r="C128" t="s">
+        <v>5</v>
+      </c>
+      <c r="D128" t="s">
+        <v>272</v>
+      </c>
+      <c r="E128" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>154</v>
+      </c>
+      <c r="B129">
+        <v>690000</v>
+      </c>
+      <c r="C129" t="s">
+        <v>5</v>
+      </c>
+      <c r="D129" t="s">
+        <v>272</v>
+      </c>
+      <c r="E129" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>155</v>
+      </c>
+      <c r="B130">
+        <v>590000</v>
+      </c>
+      <c r="C130" t="s">
+        <v>5</v>
+      </c>
+      <c r="D130" t="s">
+        <v>272</v>
+      </c>
+      <c r="E130" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>156</v>
+      </c>
+      <c r="B131">
+        <v>590000</v>
+      </c>
+      <c r="C131" t="s">
+        <v>5</v>
+      </c>
+      <c r="D131" t="s">
+        <v>272</v>
+      </c>
+      <c r="E131" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>157</v>
+      </c>
+      <c r="B132">
+        <v>590000</v>
+      </c>
+      <c r="C132" t="s">
+        <v>5</v>
+      </c>
+      <c r="D132" t="s">
+        <v>272</v>
+      </c>
+      <c r="E132" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>158</v>
+      </c>
+      <c r="B133">
+        <v>590000</v>
+      </c>
+      <c r="C133" t="s">
+        <v>5</v>
+      </c>
+      <c r="D133" t="s">
+        <v>272</v>
+      </c>
+      <c r="E133" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>159</v>
+      </c>
+      <c r="B134">
+        <v>590000</v>
+      </c>
+      <c r="C134" t="s">
+        <v>5</v>
+      </c>
+      <c r="D134" t="s">
+        <v>272</v>
+      </c>
+      <c r="E134" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>160</v>
+      </c>
+      <c r="B135">
+        <v>590000</v>
+      </c>
+      <c r="C135" t="s">
+        <v>5</v>
+      </c>
+      <c r="D135" t="s">
+        <v>272</v>
+      </c>
+      <c r="E135" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>161</v>
+      </c>
+      <c r="B136">
+        <v>590000</v>
+      </c>
+      <c r="C136" t="s">
+        <v>5</v>
+      </c>
+      <c r="D136" t="s">
+        <v>272</v>
+      </c>
+      <c r="E136" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>162</v>
+      </c>
+      <c r="B137">
+        <v>590000</v>
+      </c>
+      <c r="C137" t="s">
+        <v>5</v>
+      </c>
+      <c r="D137" t="s">
+        <v>272</v>
+      </c>
+      <c r="E137" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>163</v>
+      </c>
+      <c r="B138">
+        <v>590000</v>
+      </c>
+      <c r="C138" t="s">
+        <v>5</v>
+      </c>
+      <c r="D138" t="s">
+        <v>272</v>
+      </c>
+      <c r="E138" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>164</v>
+      </c>
+      <c r="B139">
+        <v>590000</v>
+      </c>
+      <c r="C139" t="s">
+        <v>5</v>
+      </c>
+      <c r="D139" t="s">
+        <v>272</v>
+      </c>
+      <c r="E139" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>165</v>
+      </c>
+      <c r="B140">
+        <v>590000</v>
+      </c>
+      <c r="C140" t="s">
+        <v>5</v>
+      </c>
+      <c r="D140" t="s">
+        <v>272</v>
+      </c>
+      <c r="E140" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>166</v>
+      </c>
+      <c r="B141">
+        <v>590000</v>
+      </c>
+      <c r="C141" t="s">
+        <v>5</v>
+      </c>
+      <c r="D141" t="s">
+        <v>272</v>
+      </c>
+      <c r="E141" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>167</v>
+      </c>
+      <c r="B142">
+        <v>590000</v>
+      </c>
+      <c r="C142" t="s">
+        <v>5</v>
+      </c>
+      <c r="D142" t="s">
+        <v>272</v>
+      </c>
+      <c r="E142" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>168</v>
+      </c>
+      <c r="B143">
+        <v>590000</v>
+      </c>
+      <c r="C143" t="s">
+        <v>5</v>
+      </c>
+      <c r="D143" t="s">
+        <v>272</v>
+      </c>
+      <c r="E143" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>169</v>
+      </c>
+      <c r="B144">
+        <v>590000</v>
+      </c>
+      <c r="C144" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144" t="s">
+        <v>272</v>
+      </c>
+      <c r="E144" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>170</v>
+      </c>
+      <c r="B145">
+        <v>590000</v>
+      </c>
+      <c r="C145" t="s">
+        <v>5</v>
+      </c>
+      <c r="D145" t="s">
+        <v>272</v>
+      </c>
+      <c r="E145" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>171</v>
+      </c>
+      <c r="B146">
+        <v>590000</v>
+      </c>
+      <c r="C146" t="s">
+        <v>5</v>
+      </c>
+      <c r="D146" t="s">
+        <v>272</v>
+      </c>
+      <c r="E146" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>172</v>
+      </c>
+      <c r="B147">
+        <v>590000</v>
+      </c>
+      <c r="C147" t="s">
+        <v>5</v>
+      </c>
+      <c r="D147" t="s">
+        <v>272</v>
+      </c>
+      <c r="E147" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>173</v>
+      </c>
+      <c r="B148">
+        <v>590000</v>
+      </c>
+      <c r="C148" t="s">
+        <v>5</v>
+      </c>
+      <c r="D148" t="s">
+        <v>272</v>
+      </c>
+      <c r="E148" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>174</v>
+      </c>
+      <c r="B149">
+        <v>590000</v>
+      </c>
+      <c r="C149" t="s">
+        <v>5</v>
+      </c>
+      <c r="D149" t="s">
+        <v>272</v>
+      </c>
+      <c r="E149" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>175</v>
+      </c>
+      <c r="B150">
+        <v>5790000</v>
+      </c>
+      <c r="C150" t="s">
+        <v>5</v>
+      </c>
+      <c r="D150" t="s">
+        <v>272</v>
+      </c>
+      <c r="E150" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>176</v>
+      </c>
+      <c r="B151">
+        <v>490000</v>
+      </c>
+      <c r="C151" t="s">
+        <v>5</v>
+      </c>
+      <c r="D151" t="s">
+        <v>272</v>
+      </c>
+      <c r="E151" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>177</v>
+      </c>
+      <c r="B152">
+        <v>490000</v>
+      </c>
+      <c r="C152" t="s">
+        <v>5</v>
+      </c>
+      <c r="D152" t="s">
+        <v>272</v>
+      </c>
+      <c r="E152" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>178</v>
+      </c>
+      <c r="B153">
+        <v>490000</v>
+      </c>
+      <c r="C153" t="s">
+        <v>5</v>
+      </c>
+      <c r="D153" t="s">
+        <v>272</v>
+      </c>
+      <c r="E153" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>179</v>
+      </c>
+      <c r="B154">
+        <v>490000</v>
+      </c>
+      <c r="C154" t="s">
+        <v>5</v>
+      </c>
+      <c r="D154" t="s">
+        <v>272</v>
+      </c>
+      <c r="E154" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>180</v>
+      </c>
+      <c r="B155">
+        <v>490000</v>
+      </c>
+      <c r="C155" t="s">
+        <v>5</v>
+      </c>
+      <c r="D155" t="s">
+        <v>272</v>
+      </c>
+      <c r="E155" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>181</v>
+      </c>
+      <c r="B156">
+        <v>490000</v>
+      </c>
+      <c r="C156" t="s">
+        <v>5</v>
+      </c>
+      <c r="D156" t="s">
+        <v>272</v>
+      </c>
+      <c r="E156" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>182</v>
+      </c>
+      <c r="B157">
+        <v>490000</v>
+      </c>
+      <c r="C157" t="s">
+        <v>5</v>
+      </c>
+      <c r="D157" t="s">
+        <v>272</v>
+      </c>
+      <c r="E157" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>183</v>
+      </c>
+      <c r="B158">
+        <v>490000</v>
+      </c>
+      <c r="C158" t="s">
+        <v>5</v>
+      </c>
+      <c r="D158" t="s">
+        <v>272</v>
+      </c>
+      <c r="E158" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>184</v>
+      </c>
+      <c r="B159">
+        <v>490000</v>
+      </c>
+      <c r="C159" t="s">
+        <v>5</v>
+      </c>
+      <c r="D159" t="s">
+        <v>272</v>
+      </c>
+      <c r="E159" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>185</v>
+      </c>
+      <c r="B160">
+        <v>490000</v>
+      </c>
+      <c r="C160" t="s">
+        <v>5</v>
+      </c>
+      <c r="D160" t="s">
+        <v>272</v>
+      </c>
+      <c r="E160" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>186</v>
+      </c>
+      <c r="B161">
+        <v>490000</v>
+      </c>
+      <c r="C161" t="s">
+        <v>5</v>
+      </c>
+      <c r="D161" t="s">
+        <v>272</v>
+      </c>
+      <c r="E161" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>187</v>
+      </c>
+      <c r="B162">
+        <v>490000</v>
+      </c>
+      <c r="C162" t="s">
+        <v>5</v>
+      </c>
+      <c r="D162" t="s">
+        <v>272</v>
+      </c>
+      <c r="E162" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>188</v>
+      </c>
+      <c r="B163">
+        <v>490000</v>
+      </c>
+      <c r="C163" t="s">
+        <v>5</v>
+      </c>
+      <c r="D163" t="s">
+        <v>272</v>
+      </c>
+      <c r="E163" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>189</v>
+      </c>
+      <c r="B164">
+        <v>490000</v>
+      </c>
+      <c r="C164" t="s">
+        <v>5</v>
+      </c>
+      <c r="D164" t="s">
+        <v>272</v>
+      </c>
+      <c r="E164" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>190</v>
+      </c>
+      <c r="B165">
+        <v>490000</v>
+      </c>
+      <c r="C165" t="s">
+        <v>5</v>
+      </c>
+      <c r="D165" t="s">
+        <v>272</v>
+      </c>
+      <c r="E165" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>191</v>
+      </c>
+      <c r="B166">
+        <v>490000</v>
+      </c>
+      <c r="C166" t="s">
+        <v>5</v>
+      </c>
+      <c r="D166" t="s">
+        <v>272</v>
+      </c>
+      <c r="E166" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>192</v>
+      </c>
+      <c r="B167">
+        <v>490000</v>
+      </c>
+      <c r="C167" t="s">
+        <v>5</v>
+      </c>
+      <c r="D167" t="s">
+        <v>272</v>
+      </c>
+      <c r="E167" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>193</v>
+      </c>
+      <c r="B168">
+        <v>490000</v>
+      </c>
+      <c r="C168" t="s">
+        <v>5</v>
+      </c>
+      <c r="D168" t="s">
+        <v>272</v>
+      </c>
+      <c r="E168" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>194</v>
+      </c>
+      <c r="B169">
+        <v>490000</v>
+      </c>
+      <c r="C169" t="s">
+        <v>5</v>
+      </c>
+      <c r="D169" t="s">
+        <v>272</v>
+      </c>
+      <c r="E169" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>195</v>
+      </c>
+      <c r="B170">
+        <v>490000</v>
+      </c>
+      <c r="C170" t="s">
+        <v>5</v>
+      </c>
+      <c r="D170" t="s">
+        <v>272</v>
+      </c>
+      <c r="E170" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>196</v>
+      </c>
+      <c r="B171">
+        <v>490000</v>
+      </c>
+      <c r="C171" t="s">
+        <v>5</v>
+      </c>
+      <c r="D171" t="s">
+        <v>272</v>
+      </c>
+      <c r="E171" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>197</v>
+      </c>
+      <c r="B172">
+        <v>490000</v>
+      </c>
+      <c r="C172" t="s">
+        <v>5</v>
+      </c>
+      <c r="D172" t="s">
+        <v>272</v>
+      </c>
+      <c r="E172" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>198</v>
+      </c>
+      <c r="B173">
+        <v>490000</v>
+      </c>
+      <c r="C173" t="s">
+        <v>5</v>
+      </c>
+      <c r="D173" t="s">
+        <v>272</v>
+      </c>
+      <c r="E173" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>199</v>
+      </c>
+      <c r="B174">
+        <v>490000</v>
+      </c>
+      <c r="C174" t="s">
+        <v>5</v>
+      </c>
+      <c r="D174" t="s">
+        <v>272</v>
+      </c>
+      <c r="E174" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>200</v>
+      </c>
+      <c r="B175">
+        <v>440000</v>
+      </c>
+      <c r="C175" t="s">
+        <v>5</v>
+      </c>
+      <c r="D175" t="s">
+        <v>272</v>
+      </c>
+      <c r="E175" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>201</v>
+      </c>
+      <c r="B176">
+        <v>440000</v>
+      </c>
+      <c r="C176" t="s">
+        <v>5</v>
+      </c>
+      <c r="D176" t="s">
+        <v>272</v>
+      </c>
+      <c r="E176" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>202</v>
+      </c>
+      <c r="B177">
+        <v>390000</v>
+      </c>
+      <c r="C177" t="s">
+        <v>5</v>
+      </c>
+      <c r="D177" t="s">
+        <v>272</v>
+      </c>
+      <c r="E177" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>203</v>
+      </c>
+      <c r="B178">
+        <v>390000</v>
+      </c>
+      <c r="C178" t="s">
+        <v>5</v>
+      </c>
+      <c r="D178" t="s">
+        <v>272</v>
+      </c>
+      <c r="E178" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>204</v>
+      </c>
+      <c r="B179">
+        <v>390000</v>
+      </c>
+      <c r="C179" t="s">
+        <v>5</v>
+      </c>
+      <c r="D179" t="s">
+        <v>272</v>
+      </c>
+      <c r="E179" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>205</v>
+      </c>
+      <c r="B180">
+        <v>390000</v>
+      </c>
+      <c r="C180" t="s">
+        <v>5</v>
+      </c>
+      <c r="D180" t="s">
+        <v>272</v>
+      </c>
+      <c r="E180" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>206</v>
+      </c>
+      <c r="B181">
+        <v>390000</v>
+      </c>
+      <c r="C181" t="s">
+        <v>5</v>
+      </c>
+      <c r="D181" t="s">
+        <v>272</v>
+      </c>
+      <c r="E181" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>207</v>
+      </c>
+      <c r="B182">
+        <v>390000</v>
+      </c>
+      <c r="C182" t="s">
+        <v>5</v>
+      </c>
+      <c r="D182" t="s">
+        <v>272</v>
+      </c>
+      <c r="E182" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>208</v>
+      </c>
+      <c r="B183">
+        <v>390000</v>
+      </c>
+      <c r="C183" t="s">
+        <v>5</v>
+      </c>
+      <c r="D183" t="s">
+        <v>272</v>
+      </c>
+      <c r="E183" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>209</v>
+      </c>
+      <c r="B184">
+        <v>390000</v>
+      </c>
+      <c r="C184" t="s">
+        <v>5</v>
+      </c>
+      <c r="D184" t="s">
+        <v>272</v>
+      </c>
+      <c r="E184" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>210</v>
+      </c>
+      <c r="B185">
+        <v>390000</v>
+      </c>
+      <c r="C185" t="s">
+        <v>5</v>
+      </c>
+      <c r="D185" t="s">
+        <v>272</v>
+      </c>
+      <c r="E185" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>211</v>
+      </c>
+      <c r="B186">
+        <v>390000</v>
+      </c>
+      <c r="C186" t="s">
+        <v>5</v>
+      </c>
+      <c r="D186" t="s">
+        <v>272</v>
+      </c>
+      <c r="E186" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>212</v>
+      </c>
+      <c r="B187">
+        <v>390000</v>
+      </c>
+      <c r="C187" t="s">
+        <v>5</v>
+      </c>
+      <c r="D187" t="s">
+        <v>272</v>
+      </c>
+      <c r="E187" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>213</v>
+      </c>
+      <c r="B188">
+        <v>390000</v>
+      </c>
+      <c r="C188" t="s">
+        <v>5</v>
+      </c>
+      <c r="D188" t="s">
+        <v>272</v>
+      </c>
+      <c r="E188" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>214</v>
+      </c>
+      <c r="B189">
+        <v>390000</v>
+      </c>
+      <c r="C189" t="s">
+        <v>5</v>
+      </c>
+      <c r="D189" t="s">
+        <v>272</v>
+      </c>
+      <c r="E189" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>215</v>
+      </c>
+      <c r="B190">
+        <v>3790000</v>
+      </c>
+      <c r="C190" t="s">
+        <v>5</v>
+      </c>
+      <c r="D190" t="s">
+        <v>272</v>
+      </c>
+      <c r="E190" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>216</v>
+      </c>
+      <c r="B191">
+        <v>340000</v>
+      </c>
+      <c r="C191" t="s">
+        <v>5</v>
+      </c>
+      <c r="D191" t="s">
+        <v>272</v>
+      </c>
+      <c r="E191" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>217</v>
+      </c>
+      <c r="B192">
+        <v>340000</v>
+      </c>
+      <c r="C192" t="s">
+        <v>5</v>
+      </c>
+      <c r="D192" t="s">
+        <v>272</v>
+      </c>
+      <c r="E192" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>218</v>
+      </c>
+      <c r="B193">
+        <v>3290000</v>
+      </c>
+      <c r="C193" t="s">
+        <v>5</v>
+      </c>
+      <c r="D193" t="s">
+        <v>272</v>
+      </c>
+      <c r="E193" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>219</v>
+      </c>
+      <c r="B194">
+        <v>290000</v>
+      </c>
+      <c r="C194" t="s">
+        <v>5</v>
+      </c>
+      <c r="D194" t="s">
+        <v>272</v>
+      </c>
+      <c r="E194" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>220</v>
+      </c>
+      <c r="B195">
+        <v>2790000</v>
+      </c>
+      <c r="C195" t="s">
+        <v>5</v>
+      </c>
+      <c r="D195" t="s">
+        <v>272</v>
+      </c>
+      <c r="E195" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>221</v>
+      </c>
+      <c r="B196">
+        <v>2690000</v>
+      </c>
+      <c r="C196" t="s">
+        <v>5</v>
+      </c>
+      <c r="D196" t="s">
+        <v>272</v>
+      </c>
+      <c r="E196" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>222</v>
+      </c>
+      <c r="B197">
+        <v>2590000</v>
+      </c>
+      <c r="C197" t="s">
+        <v>5</v>
+      </c>
+      <c r="D197" t="s">
+        <v>272</v>
+      </c>
+      <c r="E197" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>223</v>
+      </c>
+      <c r="B198">
+        <v>2590000</v>
+      </c>
+      <c r="C198" t="s">
+        <v>5</v>
+      </c>
+      <c r="D198" t="s">
+        <v>272</v>
+      </c>
+      <c r="E198" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>224</v>
+      </c>
+      <c r="B199">
+        <v>2590000</v>
+      </c>
+      <c r="C199" t="s">
+        <v>5</v>
+      </c>
+      <c r="D199" t="s">
+        <v>272</v>
+      </c>
+      <c r="E199" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>225</v>
+      </c>
+      <c r="B200">
+        <v>240000</v>
+      </c>
+      <c r="C200" t="s">
+        <v>5</v>
+      </c>
+      <c r="D200" t="s">
+        <v>272</v>
+      </c>
+      <c r="E200" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>226</v>
+      </c>
+      <c r="B201">
+        <v>2290000</v>
+      </c>
+      <c r="C201" t="s">
+        <v>5</v>
+      </c>
+      <c r="D201" t="s">
+        <v>272</v>
+      </c>
+      <c r="E201" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>227</v>
+      </c>
+      <c r="B202">
+        <v>2290000</v>
+      </c>
+      <c r="C202" t="s">
+        <v>5</v>
+      </c>
+      <c r="D202" t="s">
+        <v>272</v>
+      </c>
+      <c r="E202" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>228</v>
+      </c>
+      <c r="B203">
+        <v>2290000</v>
+      </c>
+      <c r="C203" t="s">
+        <v>5</v>
+      </c>
+      <c r="D203" t="s">
+        <v>272</v>
+      </c>
+      <c r="E203" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>229</v>
+      </c>
+      <c r="B204">
+        <v>2290000</v>
+      </c>
+      <c r="C204" t="s">
+        <v>5</v>
+      </c>
+      <c r="D204" t="s">
+        <v>272</v>
+      </c>
+      <c r="E204" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>230</v>
+      </c>
+      <c r="B205">
+        <v>2090000</v>
+      </c>
+      <c r="C205" t="s">
+        <v>5</v>
+      </c>
+      <c r="D205" t="s">
+        <v>272</v>
+      </c>
+      <c r="E205" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>231</v>
+      </c>
+      <c r="B206">
+        <v>2090000</v>
+      </c>
+      <c r="C206" t="s">
+        <v>5</v>
+      </c>
+      <c r="D206" t="s">
+        <v>272</v>
+      </c>
+      <c r="E206" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>232</v>
+      </c>
+      <c r="B207">
+        <v>1990000</v>
+      </c>
+      <c r="C207" t="s">
+        <v>5</v>
+      </c>
+      <c r="D207" t="s">
+        <v>272</v>
+      </c>
+      <c r="E207" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>233</v>
+      </c>
+      <c r="B208">
+        <v>1790000</v>
+      </c>
+      <c r="C208" t="s">
+        <v>5</v>
+      </c>
+      <c r="D208" t="s">
+        <v>272</v>
+      </c>
+      <c r="E208" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>234</v>
+      </c>
+      <c r="B209">
+        <v>1790000</v>
+      </c>
+      <c r="C209" t="s">
+        <v>5</v>
+      </c>
+      <c r="D209" t="s">
+        <v>272</v>
+      </c>
+      <c r="E209" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>235</v>
+      </c>
+      <c r="B210">
+        <v>1790000</v>
+      </c>
+      <c r="C210" t="s">
+        <v>5</v>
+      </c>
+      <c r="D210" t="s">
+        <v>272</v>
+      </c>
+      <c r="E210" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>236</v>
+      </c>
+      <c r="B211">
+        <v>1790000</v>
+      </c>
+      <c r="C211" t="s">
+        <v>5</v>
+      </c>
+      <c r="D211" t="s">
+        <v>272</v>
+      </c>
+      <c r="E211" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>237</v>
+      </c>
+      <c r="B212">
+        <v>1790000</v>
+      </c>
+      <c r="C212" t="s">
+        <v>5</v>
+      </c>
+      <c r="D212" t="s">
+        <v>272</v>
+      </c>
+      <c r="E212" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>238</v>
+      </c>
+      <c r="B213">
+        <v>1790000</v>
+      </c>
+      <c r="C213" t="s">
+        <v>5</v>
+      </c>
+      <c r="D213" t="s">
+        <v>272</v>
+      </c>
+      <c r="E213" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>239</v>
+      </c>
+      <c r="B214">
+        <v>1690000</v>
+      </c>
+      <c r="C214" t="s">
+        <v>5</v>
+      </c>
+      <c r="D214" t="s">
+        <v>272</v>
+      </c>
+      <c r="E214" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>240</v>
+      </c>
+      <c r="B215">
+        <v>1690000</v>
+      </c>
+      <c r="C215" t="s">
+        <v>5</v>
+      </c>
+      <c r="D215" t="s">
+        <v>272</v>
+      </c>
+      <c r="E215" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>241</v>
+      </c>
+      <c r="B216">
+        <v>1590000</v>
+      </c>
+      <c r="C216" t="s">
+        <v>5</v>
+      </c>
+      <c r="D216" t="s">
+        <v>272</v>
+      </c>
+      <c r="E216" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>242</v>
+      </c>
+      <c r="B217">
+        <v>1590000</v>
+      </c>
+      <c r="C217" t="s">
+        <v>5</v>
+      </c>
+      <c r="D217" t="s">
+        <v>272</v>
+      </c>
+      <c r="E217" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>243</v>
+      </c>
+      <c r="B218">
+        <v>1590000</v>
+      </c>
+      <c r="C218" t="s">
+        <v>5</v>
+      </c>
+      <c r="D218" t="s">
+        <v>272</v>
+      </c>
+      <c r="E218" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>244</v>
+      </c>
+      <c r="B219">
+        <v>1590000</v>
+      </c>
+      <c r="C219" t="s">
+        <v>5</v>
+      </c>
+      <c r="D219" t="s">
+        <v>272</v>
+      </c>
+      <c r="E219" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>245</v>
+      </c>
+      <c r="B220">
+        <v>1590000</v>
+      </c>
+      <c r="C220" t="s">
+        <v>5</v>
+      </c>
+      <c r="D220" t="s">
+        <v>272</v>
+      </c>
+      <c r="E220" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>246</v>
+      </c>
+      <c r="B221">
+        <v>1590000</v>
+      </c>
+      <c r="C221" t="s">
+        <v>5</v>
+      </c>
+      <c r="D221" t="s">
+        <v>272</v>
+      </c>
+      <c r="E221" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>247</v>
+      </c>
+      <c r="B222">
+        <v>1590000</v>
+      </c>
+      <c r="C222" t="s">
+        <v>5</v>
+      </c>
+      <c r="D222" t="s">
+        <v>272</v>
+      </c>
+      <c r="E222" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>248</v>
+      </c>
+      <c r="B223">
+        <v>1590000</v>
+      </c>
+      <c r="C223" t="s">
+        <v>5</v>
+      </c>
+      <c r="D223" t="s">
+        <v>272</v>
+      </c>
+      <c r="E223" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>249</v>
+      </c>
+      <c r="B224">
+        <v>1490000</v>
+      </c>
+      <c r="C224" t="s">
+        <v>5</v>
+      </c>
+      <c r="D224" t="s">
+        <v>272</v>
+      </c>
+      <c r="E224" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>250</v>
+      </c>
+      <c r="B225">
+        <v>1390000</v>
+      </c>
+      <c r="C225" t="s">
+        <v>5</v>
+      </c>
+      <c r="D225" t="s">
+        <v>272</v>
+      </c>
+      <c r="E225" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>251</v>
+      </c>
+      <c r="B226">
+        <v>1390000</v>
+      </c>
+      <c r="C226" t="s">
+        <v>5</v>
+      </c>
+      <c r="D226" t="s">
+        <v>272</v>
+      </c>
+      <c r="E226" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>252</v>
+      </c>
+      <c r="B227">
+        <v>1290000</v>
+      </c>
+      <c r="C227" t="s">
+        <v>5</v>
+      </c>
+      <c r="D227" t="s">
+        <v>272</v>
+      </c>
+      <c r="E227" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>253</v>
+      </c>
+      <c r="B228">
+        <v>1290000</v>
+      </c>
+      <c r="C228" t="s">
+        <v>5</v>
+      </c>
+      <c r="D228" t="s">
+        <v>272</v>
+      </c>
+      <c r="E228" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>254</v>
+      </c>
+      <c r="B229">
+        <v>1290000</v>
+      </c>
+      <c r="C229" t="s">
+        <v>5</v>
+      </c>
+      <c r="D229" t="s">
+        <v>272</v>
+      </c>
+      <c r="E229" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>255</v>
+      </c>
+      <c r="B230">
+        <v>1290000</v>
+      </c>
+      <c r="C230" t="s">
+        <v>5</v>
+      </c>
+      <c r="D230" t="s">
+        <v>272</v>
+      </c>
+      <c r="E230" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>256</v>
+      </c>
+      <c r="B231">
+        <v>1290000</v>
+      </c>
+      <c r="C231" t="s">
+        <v>5</v>
+      </c>
+      <c r="D231" t="s">
+        <v>272</v>
+      </c>
+      <c r="E231" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>257</v>
+      </c>
+      <c r="B232">
+        <v>1290000</v>
+      </c>
+      <c r="C232" t="s">
+        <v>5</v>
+      </c>
+      <c r="D232" t="s">
+        <v>272</v>
+      </c>
+      <c r="E232" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>258</v>
+      </c>
+      <c r="B233">
+        <v>1290000</v>
+      </c>
+      <c r="C233" t="s">
+        <v>5</v>
+      </c>
+      <c r="D233" t="s">
+        <v>272</v>
+      </c>
+      <c r="E233" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>259</v>
+      </c>
+      <c r="B234">
+        <v>1290000</v>
+      </c>
+      <c r="C234" t="s">
+        <v>5</v>
+      </c>
+      <c r="D234" t="s">
+        <v>272</v>
+      </c>
+      <c r="E234" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>260</v>
+      </c>
+      <c r="B235">
+        <v>1290000</v>
+      </c>
+      <c r="C235" t="s">
+        <v>5</v>
+      </c>
+      <c r="D235" t="s">
+        <v>272</v>
+      </c>
+      <c r="E235" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>261</v>
+      </c>
+      <c r="B236">
+        <v>1290000</v>
+      </c>
+      <c r="C236" t="s">
+        <v>5</v>
+      </c>
+      <c r="D236" t="s">
+        <v>272</v>
+      </c>
+      <c r="E236" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>262</v>
+      </c>
+      <c r="B237">
+        <v>1290000</v>
+      </c>
+      <c r="C237" t="s">
+        <v>5</v>
+      </c>
+      <c r="D237" t="s">
+        <v>272</v>
+      </c>
+      <c r="E237" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>263</v>
+      </c>
+      <c r="B238">
+        <v>1190000</v>
+      </c>
+      <c r="C238" t="s">
+        <v>5</v>
+      </c>
+      <c r="D238" t="s">
+        <v>272</v>
+      </c>
+      <c r="E238" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>264</v>
+      </c>
+      <c r="B239">
+        <v>1190000</v>
+      </c>
+      <c r="C239" t="s">
+        <v>5</v>
+      </c>
+      <c r="D239" t="s">
+        <v>272</v>
+      </c>
+      <c r="E239" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>265</v>
+      </c>
+      <c r="B240">
+        <v>1190000</v>
+      </c>
+      <c r="C240" t="s">
+        <v>5</v>
+      </c>
+      <c r="D240" t="s">
+        <v>272</v>
+      </c>
+      <c r="E240" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>266</v>
+      </c>
+      <c r="B241">
+        <v>1190000</v>
+      </c>
+      <c r="C241" t="s">
+        <v>5</v>
+      </c>
+      <c r="D241" t="s">
+        <v>272</v>
+      </c>
+      <c r="E241" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>267</v>
+      </c>
+      <c r="B242">
+        <v>1190000</v>
+      </c>
+      <c r="C242" t="s">
+        <v>5</v>
+      </c>
+      <c r="D242" t="s">
+        <v>272</v>
+      </c>
+      <c r="E242" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>268</v>
+      </c>
+      <c r="B243">
+        <v>1090000</v>
+      </c>
+      <c r="C243" t="s">
+        <v>5</v>
+      </c>
+      <c r="D243" t="s">
+        <v>272</v>
+      </c>
+      <c r="E243" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>269</v>
+      </c>
+      <c r="B244">
+        <v>1090000</v>
+      </c>
+      <c r="C244" t="s">
+        <v>5</v>
+      </c>
+      <c r="D244" t="s">
+        <v>272</v>
+      </c>
+      <c r="E244" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>270</v>
+      </c>
+      <c r="B245">
+        <v>1090000</v>
+      </c>
+      <c r="C245" t="s">
+        <v>5</v>
+      </c>
+      <c r="D245" t="s">
+        <v>272</v>
+      </c>
+      <c r="E245" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>271</v>
+      </c>
+      <c r="B246">
+        <v>390000</v>
+      </c>
+      <c r="C246" t="s">
+        <v>5</v>
+      </c>
+      <c r="D246" t="s">
+        <v>272</v>
+      </c>
+      <c r="E246" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -683,10 +5410,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -717,63 +5444,83 @@
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
